--- a/data/Food_nutrition_Intake/nutrient_table2.xlsx
+++ b/data/Food_nutrition_Intake/nutrient_table2.xlsx
@@ -8,20 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\20201077\Desktop\DorukGüngör\Eindhoven\Data_Science_AI\Knowledge_Engineering\Knowledge-Engineering-2AMD20-\data\Food_nutrition_Intake\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DCD7FF1-9BDC-46C1-BD36-3784934FDFE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E7214BF-E7E0-43DE-86CC-8151A449E5D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Nutrient density 2015 2016" sheetId="1" r:id="rId1"/>
-    <sheet name="Nutrient Density 2017 2018" sheetId="2" r:id="rId2"/>
+    <sheet name="2015 2016" sheetId="1" r:id="rId1"/>
+    <sheet name="2017 2018" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="23">
   <si>
     <t>Total</t>
   </si>
@@ -1177,9 +1177,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O36"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I1" sqref="I1:O1048576"/>
     </sheetView>
   </sheetViews>
@@ -1192,11 +1192,9 @@
     <col min="6" max="6" width="8.109375" customWidth="1"/>
     <col min="7" max="7" width="8.44140625" customWidth="1"/>
     <col min="8" max="8" width="8.109375" customWidth="1"/>
-    <col min="11" max="11" width="14" customWidth="1"/>
-    <col min="12" max="12" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>4</v>
       </c>
@@ -1221,29 +1219,8 @@
       <c r="H1" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="J1" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="L1" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="M1" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="N1" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="O1" s="20" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>6</v>
       </c>
@@ -1254,15 +1231,8 @@
       <c r="F2" s="15"/>
       <c r="G2" s="15"/>
       <c r="H2" s="15"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-    </row>
-    <row r="3" spans="1:15" ht="16.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:8" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
         <v>21</v>
       </c>
@@ -1287,29 +1257,8 @@
       <c r="H3" s="3">
         <v>767.69</v>
       </c>
-      <c r="I3" s="3">
-        <v>487.67</v>
-      </c>
-      <c r="J3" s="3">
-        <v>573.20000000000005</v>
-      </c>
-      <c r="K3" s="3">
-        <v>461.81</v>
-      </c>
-      <c r="L3" s="3">
-        <v>344.7</v>
-      </c>
-      <c r="M3" s="3">
-        <v>459.51</v>
-      </c>
-      <c r="N3" s="3">
-        <v>805.32</v>
-      </c>
-      <c r="O3" s="3">
-        <v>609.15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
@@ -1334,29 +1283,8 @@
       <c r="H4" s="3">
         <v>316.3</v>
       </c>
-      <c r="I4" s="3">
-        <v>526.16999999999996</v>
-      </c>
-      <c r="J4" s="3">
-        <v>589.83000000000004</v>
-      </c>
-      <c r="K4" s="3">
-        <v>456.29</v>
-      </c>
-      <c r="L4" s="3">
-        <v>331.01</v>
-      </c>
-      <c r="M4" s="3">
-        <v>395.43</v>
-      </c>
-      <c r="N4" s="3">
-        <v>805.32</v>
-      </c>
-      <c r="O4" s="3">
-        <v>297.62</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="16.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>22</v>
       </c>
@@ -1381,29 +1309,8 @@
       <c r="H5" s="3">
         <v>1004.32</v>
       </c>
-      <c r="I5" s="3">
-        <v>482.3</v>
-      </c>
-      <c r="J5" s="3">
-        <v>584.17999999999995</v>
-      </c>
-      <c r="K5" s="3">
-        <v>484.77</v>
-      </c>
-      <c r="L5" s="3">
-        <v>347.94</v>
-      </c>
-      <c r="M5" s="3">
-        <v>490.21</v>
-      </c>
-      <c r="N5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="O5" s="3">
-        <v>811.39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="15" t="s">
         <v>7</v>
       </c>
@@ -1414,15 +1321,8 @@
       <c r="F6" s="15"/>
       <c r="G6" s="15"/>
       <c r="H6" s="15"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-    </row>
-    <row r="7" spans="1:15" ht="16.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:8" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
         <v>21</v>
       </c>
@@ -1447,29 +1347,8 @@
       <c r="H7" s="3">
         <v>86.86</v>
       </c>
-      <c r="I7" s="3">
-        <v>139.53</v>
-      </c>
-      <c r="J7" s="3">
-        <v>130.44</v>
-      </c>
-      <c r="K7" s="3">
-        <v>140.74</v>
-      </c>
-      <c r="L7" s="3">
-        <v>193.7</v>
-      </c>
-      <c r="M7" s="3">
-        <v>131.26</v>
-      </c>
-      <c r="N7" s="3">
-        <v>82.93</v>
-      </c>
-      <c r="O7" s="3">
-        <v>99.34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
@@ -1494,29 +1373,8 @@
       <c r="H8" s="3">
         <v>73.53</v>
       </c>
-      <c r="I8" s="3">
-        <v>119.05</v>
-      </c>
-      <c r="J8" s="3">
-        <v>116.03</v>
-      </c>
-      <c r="K8" s="3">
-        <v>107.82</v>
-      </c>
-      <c r="L8" s="3">
-        <v>172.28</v>
-      </c>
-      <c r="M8" s="3">
-        <v>108.51</v>
-      </c>
-      <c r="N8" s="3">
-        <v>82.93</v>
-      </c>
-      <c r="O8" s="3">
-        <v>69.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="16.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>22</v>
       </c>
@@ -1541,29 +1399,8 @@
       <c r="H9" s="3">
         <v>87.21</v>
       </c>
-      <c r="I9" s="3">
-        <v>146.09</v>
-      </c>
-      <c r="J9" s="3">
-        <v>136.41</v>
-      </c>
-      <c r="K9" s="3">
-        <v>149.01</v>
-      </c>
-      <c r="L9" s="3">
-        <v>192.9</v>
-      </c>
-      <c r="M9" s="3">
-        <v>136.75</v>
-      </c>
-      <c r="N9" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="O9" s="3">
-        <v>110.24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
         <v>11</v>
       </c>
@@ -1574,15 +1411,8 @@
       <c r="F10" s="15"/>
       <c r="G10" s="15"/>
       <c r="H10" s="15"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-    </row>
-    <row r="11" spans="1:15" ht="16.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:8" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
         <v>21</v>
       </c>
@@ -1607,29 +1437,8 @@
       <c r="H11" s="3">
         <v>7.18</v>
       </c>
-      <c r="I11" s="3">
-        <v>8.0500000000000007</v>
-      </c>
-      <c r="J11" s="3">
-        <v>8.4</v>
-      </c>
-      <c r="K11" s="3">
-        <v>6.87</v>
-      </c>
-      <c r="L11" s="3">
-        <v>7.37</v>
-      </c>
-      <c r="M11" s="3">
-        <v>5.95</v>
-      </c>
-      <c r="N11" s="3">
-        <v>10.17</v>
-      </c>
-      <c r="O11" s="3">
-        <v>7.11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>14</v>
       </c>
@@ -1654,29 +1463,8 @@
       <c r="H12" s="3">
         <v>6.91</v>
       </c>
-      <c r="I12" s="3">
-        <v>7.65</v>
-      </c>
-      <c r="J12" s="3">
-        <v>8.17</v>
-      </c>
-      <c r="K12" s="3">
-        <v>7.35</v>
-      </c>
-      <c r="L12" s="3">
-        <v>6.48</v>
-      </c>
-      <c r="M12" s="3">
-        <v>6.35</v>
-      </c>
-      <c r="N12" s="3">
-        <v>10.17</v>
-      </c>
-      <c r="O12" s="3">
-        <v>6.93</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="16.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>22</v>
       </c>
@@ -1701,29 +1489,8 @@
       <c r="H13" s="3">
         <v>7.05</v>
       </c>
-      <c r="I13" s="3">
-        <v>7.97</v>
-      </c>
-      <c r="J13" s="3">
-        <v>8.2100000000000009</v>
-      </c>
-      <c r="K13" s="3">
-        <v>6.66</v>
-      </c>
-      <c r="L13" s="3">
-        <v>7.56</v>
-      </c>
-      <c r="M13" s="3">
-        <v>5.84</v>
-      </c>
-      <c r="N13" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="O13" s="3">
-        <v>7.13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="s">
         <v>8</v>
       </c>
@@ -1734,15 +1501,8 @@
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
       <c r="H14" s="15"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-    </row>
-    <row r="15" spans="1:15" ht="16.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:8" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
         <v>21</v>
       </c>
@@ -1767,29 +1527,8 @@
       <c r="H15" s="3">
         <v>6.41</v>
       </c>
-      <c r="I15" s="3">
-        <v>6.88</v>
-      </c>
-      <c r="J15" s="3">
-        <v>7.39</v>
-      </c>
-      <c r="K15" s="3">
-        <v>5.9</v>
-      </c>
-      <c r="L15" s="3">
-        <v>6.16</v>
-      </c>
-      <c r="M15" s="3">
-        <v>5.86</v>
-      </c>
-      <c r="N15" s="3">
-        <v>7.23</v>
-      </c>
-      <c r="O15" s="3">
-        <v>5.62</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>14</v>
       </c>
@@ -1814,29 +1553,8 @@
       <c r="H16" s="3">
         <v>5.5</v>
       </c>
-      <c r="I16" s="3">
-        <v>7.12</v>
-      </c>
-      <c r="J16" s="3">
-        <v>7.89</v>
-      </c>
-      <c r="K16" s="3">
-        <v>5.81</v>
-      </c>
-      <c r="L16" s="3">
-        <v>5.46</v>
-      </c>
-      <c r="M16" s="3">
-        <v>5.4</v>
-      </c>
-      <c r="N16" s="3">
-        <v>7.23</v>
-      </c>
-      <c r="O16" s="3">
-        <v>5.34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" ht="16.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>22</v>
       </c>
@@ -1861,29 +1579,8 @@
       <c r="H17" s="3">
         <v>6.45</v>
       </c>
-      <c r="I17" s="3">
-        <v>6.68</v>
-      </c>
-      <c r="J17" s="3">
-        <v>7.09</v>
-      </c>
-      <c r="K17" s="3">
-        <v>5.83</v>
-      </c>
-      <c r="L17" s="3">
-        <v>6.14</v>
-      </c>
-      <c r="M17" s="3">
-        <v>5.93</v>
-      </c>
-      <c r="N17" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="O17" s="3">
-        <v>5.68</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="15" t="s">
         <v>12</v>
       </c>
@@ -1894,15 +1591,8 @@
       <c r="F18" s="15"/>
       <c r="G18" s="15"/>
       <c r="H18" s="15"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="4"/>
-    </row>
-    <row r="19" spans="1:15" ht="16.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:8" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A19" s="14" t="s">
         <v>21</v>
       </c>
@@ -1927,29 +1617,8 @@
       <c r="H19" s="3">
         <v>12.14</v>
       </c>
-      <c r="I19" s="3">
-        <v>13.12</v>
-      </c>
-      <c r="J19" s="3">
-        <v>12.16</v>
-      </c>
-      <c r="K19" s="3">
-        <v>13.93</v>
-      </c>
-      <c r="L19" s="3">
-        <v>13.25</v>
-      </c>
-      <c r="M19" s="3">
-        <v>14.52</v>
-      </c>
-      <c r="N19" s="3">
-        <v>11.53</v>
-      </c>
-      <c r="O19" s="3">
-        <v>12.89</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>14</v>
       </c>
@@ -1974,29 +1643,8 @@
       <c r="H20" s="3">
         <v>11.8</v>
       </c>
-      <c r="I20" s="3">
-        <v>13.35</v>
-      </c>
-      <c r="J20" s="3">
-        <v>12.52</v>
-      </c>
-      <c r="K20" s="3">
-        <v>13.6</v>
-      </c>
-      <c r="L20" s="3">
-        <v>13.68</v>
-      </c>
-      <c r="M20" s="3">
-        <v>14.76</v>
-      </c>
-      <c r="N20" s="3">
-        <v>11.53</v>
-      </c>
-      <c r="O20" s="3">
-        <v>12.15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" ht="16.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>22</v>
       </c>
@@ -2021,29 +1669,8 @@
       <c r="H21" s="3">
         <v>12.03</v>
       </c>
-      <c r="I21" s="3">
-        <v>12.97</v>
-      </c>
-      <c r="J21" s="3">
-        <v>11.86</v>
-      </c>
-      <c r="K21" s="3">
-        <v>14.01</v>
-      </c>
-      <c r="L21" s="3">
-        <v>13.2</v>
-      </c>
-      <c r="M21" s="3">
-        <v>14.35</v>
-      </c>
-      <c r="N21" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="O21" s="3">
-        <v>12.98</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="15" t="s">
         <v>13</v>
       </c>
@@ -2054,15 +1681,8 @@
       <c r="F22" s="15"/>
       <c r="G22" s="15"/>
       <c r="H22" s="15"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
-      <c r="N22" s="4"/>
-      <c r="O22" s="4"/>
-    </row>
-    <row r="23" spans="1:15" ht="16.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:8" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A23" s="14" t="s">
         <v>21</v>
       </c>
@@ -2087,29 +1707,8 @@
       <c r="H23" s="3">
         <v>34.909999999999997</v>
       </c>
-      <c r="I23" s="3">
-        <v>39.880000000000003</v>
-      </c>
-      <c r="J23" s="3">
-        <v>36.81</v>
-      </c>
-      <c r="K23" s="3">
-        <v>42.07</v>
-      </c>
-      <c r="L23" s="3">
-        <v>44.64</v>
-      </c>
-      <c r="M23" s="3">
-        <v>42.65</v>
-      </c>
-      <c r="N23" s="3">
-        <v>31.6</v>
-      </c>
-      <c r="O23" s="3">
-        <v>37.06</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>14</v>
       </c>
@@ -2134,29 +1733,8 @@
       <c r="H24" s="3">
         <v>32.36</v>
       </c>
-      <c r="I24" s="3">
-        <v>38.729999999999997</v>
-      </c>
-      <c r="J24" s="3">
-        <v>36.15</v>
-      </c>
-      <c r="K24" s="3">
-        <v>39.4</v>
-      </c>
-      <c r="L24" s="3">
-        <v>44.04</v>
-      </c>
-      <c r="M24" s="3">
-        <v>43.02</v>
-      </c>
-      <c r="N24" s="3">
-        <v>31.6</v>
-      </c>
-      <c r="O24" s="3">
-        <v>33.96</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" ht="16.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>22</v>
       </c>
@@ -2181,29 +1759,8 @@
       <c r="H25" s="3">
         <v>34.74</v>
       </c>
-      <c r="I25" s="3">
-        <v>40.01</v>
-      </c>
-      <c r="J25" s="3">
-        <v>36.53</v>
-      </c>
-      <c r="K25" s="3">
-        <v>42.71</v>
-      </c>
-      <c r="L25" s="3">
-        <v>44.6</v>
-      </c>
-      <c r="M25" s="3">
-        <v>42.46</v>
-      </c>
-      <c r="N25" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="O25" s="3">
-        <v>37.26</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="15" t="s">
         <v>9</v>
       </c>
@@ -2214,15 +1771,8 @@
       <c r="F26" s="15"/>
       <c r="G26" s="15"/>
       <c r="H26" s="15"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="4"/>
-      <c r="N26" s="4"/>
-      <c r="O26" s="4"/>
-    </row>
-    <row r="27" spans="1:15" ht="16.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:8" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A27" s="14" t="s">
         <v>21</v>
       </c>
@@ -2247,29 +1797,8 @@
       <c r="H27" s="3">
         <v>2273.15</v>
       </c>
-      <c r="I27" s="3">
-        <v>1687.77</v>
-      </c>
-      <c r="J27" s="3">
-        <v>1535.71</v>
-      </c>
-      <c r="K27" s="3">
-        <v>1993.35</v>
-      </c>
-      <c r="L27" s="3">
-        <v>2324.64</v>
-      </c>
-      <c r="M27" s="3">
-        <v>1747.65</v>
-      </c>
-      <c r="N27" s="3">
-        <v>1342.52</v>
-      </c>
-      <c r="O27" s="3">
-        <v>2066.39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>14</v>
       </c>
@@ -2294,29 +1823,8 @@
       <c r="H28" s="3">
         <v>1411.83</v>
       </c>
-      <c r="I28" s="3">
-        <v>1552.08</v>
-      </c>
-      <c r="J28" s="3">
-        <v>1467.69</v>
-      </c>
-      <c r="K28" s="3">
-        <v>1593.16</v>
-      </c>
-      <c r="L28" s="3">
-        <v>2085.59</v>
-      </c>
-      <c r="M28" s="3">
-        <v>1647.56</v>
-      </c>
-      <c r="N28" s="3">
-        <v>1342.52</v>
-      </c>
-      <c r="O28" s="3">
-        <v>1253.8699999999999</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" ht="16.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>22</v>
       </c>
@@ -2341,29 +1849,8 @@
       <c r="H29" s="3">
         <v>2660.34</v>
       </c>
-      <c r="I29" s="3">
-        <v>1750.67</v>
-      </c>
-      <c r="J29" s="3">
-        <v>1570.98</v>
-      </c>
-      <c r="K29" s="3">
-        <v>2124</v>
-      </c>
-      <c r="L29" s="3">
-        <v>2294.36</v>
-      </c>
-      <c r="M29" s="3">
-        <v>1775.73</v>
-      </c>
-      <c r="N29" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="O29" s="3">
-        <v>2507.14</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
         <v>18</v>
       </c>
@@ -2374,15 +1861,8 @@
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="3"/>
-      <c r="N30" s="3"/>
-      <c r="O30" s="3"/>
-    </row>
-    <row r="31" spans="1:15" ht="16.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:8" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A31" s="11" t="s">
         <v>16</v>
       </c>
@@ -2394,7 +1874,7 @@
       <c r="G31" s="12"/>
       <c r="H31" s="13"/>
     </row>
-    <row r="32" spans="1:15" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A32" s="10" t="s">
         <v>15</v>
       </c>
@@ -2451,8 +1931,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73D396F9-9DA7-4616-9D8E-7DDB137E5BE4}">
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
